--- a/biology/Botanique/Hermann_von_Barth/Hermann_von_Barth.xlsx
+++ b/biology/Botanique/Hermann_von_Barth/Hermann_von_Barth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann von Barth, né le 5 juin 1845 au château d'Eurasburg (Haute-Bavière) et mort le 7 décembre 1876 à São Paulo da Assunção de Loanda en Angola, est un alpiniste, géologue et botaniste bavarois, précurseur de l'alpinisme sans guide et explorateur des Alpes calcaires du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du trésorier et propriétaire Anton von Barth zu Harmating (1815-1902) et de son épouse Flora, née von Krauss, il passe sa jeunesse au pied des Karwendel. Il étudie tout d'abord le droit à l'université de Munich. 
 Ce n'est qu'en 1868, comme un stagiaire juridique, qu'il commence à grimper dans les Alpes de Berchtesgaden dans lesquelles il est le précurseur de l'alpinisme sportif, en enchaînant les ascensions et en gravissant le plus souvent seul. En 1869, von Barth visite les Alpes d'Allgäu, toujours sans guide. L'année suivante, il se rend dans les Karwendel pour gravir quatre-vingt-huit sommets dont le Grosser Lafatscher et le Kleiner Lafatscher. Toujours la même année, il explore le Wetterstein en réalisant des premières telles que le Dreitorspitze. 
